--- a/codebase/ext/generic/cfg/WFTemplate.xlsx
+++ b/codebase/ext/generic/cfg/WFTemplate.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFEBE9E-2F41-EE4E-B2C7-D583BDFCB6C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WFTemplate" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="137">
   <si>
     <t>请不要删除此行</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -612,12 +613,27 @@
     <t>通知</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>修改变更申请</t>
+  </si>
+  <si>
+    <t>APPO_ECNWF</t>
+  </si>
+  <si>
+    <t>APPO_BOMCHANGEWF</t>
+  </si>
+  <si>
+    <t>数据更改</t>
+  </si>
+  <si>
+    <t>APPO_DRAWINGCHANGEWF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,7 +754,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -813,6 +829,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -848,6 +881,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1023,26 +1073,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D146"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="64.375" customWidth="1"/>
+    <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="3"/>
       <c r="B2" t="s">
         <v>31</v>
@@ -1051,7 +1102,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>33</v>
@@ -1060,7 +1111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>35</v>
@@ -1069,7 +1120,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>36</v>
@@ -1078,7 +1129,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>37</v>
@@ -1087,7 +1138,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>38</v>
@@ -1096,7 +1147,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>44</v>
@@ -1105,7 +1156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>39</v>
@@ -1114,12 +1165,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>4</v>
@@ -1128,7 +1179,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>2</v>
@@ -1137,7 +1188,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -1146,7 +1197,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="3"/>
       <c r="B14" t="s">
         <v>36</v>
@@ -1155,7 +1206,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>37</v>
@@ -1164,7 +1215,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>38</v>
@@ -1174,7 +1225,7 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>44</v>
@@ -1183,7 +1234,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>5</v>
@@ -1192,12 +1243,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>12</v>
@@ -1209,7 +1260,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>13</v>
@@ -1221,7 +1272,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>51</v>
@@ -1233,7 +1284,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>11</v>
@@ -1242,7 +1293,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>5</v>
@@ -1251,7 +1302,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
         <v>63</v>
@@ -1260,12 +1311,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>4</v>
@@ -1274,7 +1325,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" s="3"/>
       <c r="B28" t="s">
         <v>5</v>
@@ -1283,7 +1334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
         <v>45</v>
@@ -1292,7 +1343,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30" s="3"/>
       <c r="B30" t="s">
         <v>47</v>
@@ -1301,7 +1352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>36</v>
@@ -1310,7 +1361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
         <v>49</v>
@@ -1319,7 +1370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
         <v>3</v>
@@ -1328,7 +1379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
         <v>88</v>
@@ -1337,7 +1388,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="3"/>
       <c r="B35" t="s">
         <v>44</v>
@@ -1346,12 +1397,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
         <v>120</v>
@@ -1360,7 +1411,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
         <v>122</v>
@@ -1369,7 +1420,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" s="3"/>
       <c r="B39" t="s">
         <v>123</v>
@@ -1378,7 +1429,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
         <v>126</v>
@@ -1387,7 +1438,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" s="3"/>
       <c r="B41" t="s">
         <v>127</v>
@@ -1396,7 +1447,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" s="3"/>
       <c r="B42" t="s">
         <v>128</v>
@@ -1405,7 +1456,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
         <v>129</v>
@@ -1414,7 +1465,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" s="3"/>
       <c r="B44" t="s">
         <v>130</v>
@@ -1423,7 +1474,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="3"/>
       <c r="B45" t="s">
         <v>131</v>
@@ -1432,12 +1483,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" s="3"/>
       <c r="B47" t="s">
         <v>4</v>
@@ -1446,7 +1497,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3">
       <c r="A48" s="3"/>
       <c r="B48" t="s">
         <v>5</v>
@@ -1455,7 +1506,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="A49" s="3"/>
       <c r="B49" t="s">
         <v>45</v>
@@ -1464,7 +1515,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="A50" s="3"/>
       <c r="B50" t="s">
         <v>1</v>
@@ -1473,7 +1524,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3">
       <c r="A51" s="3"/>
       <c r="B51" t="s">
         <v>37</v>
@@ -1482,7 +1533,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52" s="3"/>
       <c r="B52" t="s">
         <v>3</v>
@@ -1491,7 +1542,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="A53" s="3"/>
       <c r="B53" t="s">
         <v>44</v>
@@ -1500,12 +1551,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3">
       <c r="A55" s="3"/>
       <c r="B55" t="s">
         <v>4</v>
@@ -1514,7 +1565,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3">
       <c r="A56" s="3"/>
       <c r="B56" t="s">
         <v>5</v>
@@ -1523,7 +1574,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3">
       <c r="A57" s="3"/>
       <c r="B57" t="s">
         <v>2</v>
@@ -1532,7 +1583,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3">
       <c r="A58" s="3"/>
       <c r="B58" t="s">
         <v>1</v>
@@ -1541,7 +1592,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3">
       <c r="A59" s="3"/>
       <c r="B59" t="s">
         <v>22</v>
@@ -1550,7 +1601,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3">
       <c r="A60" s="3"/>
       <c r="B60" t="s">
         <v>3</v>
@@ -1559,7 +1610,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3">
       <c r="A61" s="3"/>
       <c r="B61" t="s">
         <v>43</v>
@@ -1568,12 +1619,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3">
       <c r="A62" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3">
       <c r="A63" s="3"/>
       <c r="B63" t="s">
         <v>4</v>
@@ -1582,7 +1633,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3">
       <c r="A64" s="3"/>
       <c r="B64" t="s">
         <v>5</v>
@@ -1591,7 +1642,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3">
       <c r="A65" s="3"/>
       <c r="B65" t="s">
         <v>45</v>
@@ -1600,7 +1651,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3">
       <c r="A66" s="3"/>
       <c r="B66" t="s">
         <v>118</v>
@@ -1609,7 +1660,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3">
       <c r="A67" s="3"/>
       <c r="B67" t="s">
         <v>47</v>
@@ -1618,7 +1669,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3">
       <c r="A68" s="3"/>
       <c r="B68" t="s">
         <v>117</v>
@@ -1627,7 +1678,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3">
       <c r="A69" s="3"/>
       <c r="B69" t="s">
         <v>3</v>
@@ -1636,7 +1687,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3">
       <c r="A70" s="3"/>
       <c r="B70" t="s">
         <v>43</v>
@@ -1645,12 +1696,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3">
       <c r="A71" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3">
       <c r="A72" s="3"/>
       <c r="B72" t="s">
         <v>4</v>
@@ -1659,7 +1710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3">
       <c r="A73" s="3"/>
       <c r="B73" t="s">
         <v>5</v>
@@ -1668,7 +1719,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3">
       <c r="A74" s="3"/>
       <c r="B74" t="s">
         <v>2</v>
@@ -1677,7 +1728,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3">
       <c r="A75" s="3"/>
       <c r="B75" t="s">
         <v>22</v>
@@ -1686,7 +1737,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3">
       <c r="A76" s="3"/>
       <c r="B76" t="s">
         <v>115</v>
@@ -1695,7 +1746,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3">
       <c r="A77" s="3"/>
       <c r="B77" t="s">
         <v>116</v>
@@ -1704,7 +1755,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3">
       <c r="A78" s="3"/>
       <c r="B78" t="s">
         <v>3</v>
@@ -1713,7 +1764,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3">
       <c r="A79" s="3"/>
       <c r="B79" t="s">
         <v>43</v>
@@ -1722,12 +1773,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3">
       <c r="A80" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3">
       <c r="A81" s="3"/>
       <c r="B81" t="s">
         <v>4</v>
@@ -1736,7 +1787,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3">
       <c r="A82" s="3"/>
       <c r="B82" t="s">
         <v>5</v>
@@ -1745,7 +1796,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3">
       <c r="A83" s="3"/>
       <c r="B83" t="s">
         <v>2</v>
@@ -1754,7 +1805,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3">
       <c r="A84" s="3"/>
       <c r="B84" t="s">
         <v>22</v>
@@ -1763,7 +1814,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3">
       <c r="A85" s="3"/>
       <c r="B85" t="s">
         <v>113</v>
@@ -1772,7 +1823,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3">
       <c r="A86" s="3"/>
       <c r="B86" t="s">
         <v>114</v>
@@ -1781,7 +1832,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:3">
       <c r="A87" s="3"/>
       <c r="B87" t="s">
         <v>3</v>
@@ -1790,7 +1841,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3">
       <c r="A88" s="3"/>
       <c r="B88" t="s">
         <v>43</v>
@@ -1799,12 +1850,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3">
       <c r="A89" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3">
       <c r="A90" s="3"/>
       <c r="B90" t="s">
         <v>4</v>
@@ -1813,7 +1864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3">
       <c r="A91" s="3"/>
       <c r="B91" t="s">
         <v>42</v>
@@ -1822,7 +1873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3">
       <c r="A92" s="3"/>
       <c r="B92" t="s">
         <v>1</v>
@@ -1831,7 +1882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3">
       <c r="A93" s="3"/>
       <c r="B93" t="s">
         <v>65</v>
@@ -1840,7 +1891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3">
       <c r="A94" s="3"/>
       <c r="B94" t="s">
         <v>53</v>
@@ -1849,12 +1900,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3">
       <c r="A95" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3">
       <c r="A96" s="3"/>
       <c r="B96" t="s">
         <v>10</v>
@@ -1863,7 +1914,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3">
       <c r="A97" s="3"/>
       <c r="B97" t="s">
         <v>100</v>
@@ -1872,7 +1923,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3">
       <c r="A98" s="3"/>
       <c r="B98" t="s">
         <v>24</v>
@@ -1881,7 +1932,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3">
       <c r="A99" s="3"/>
       <c r="B99" t="s">
         <v>36</v>
@@ -1890,7 +1941,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3">
       <c r="A100" s="3"/>
       <c r="B100" t="s">
         <v>3</v>
@@ -1899,7 +1950,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3">
       <c r="A101" s="3"/>
       <c r="B101" t="s">
         <v>112</v>
@@ -1908,12 +1959,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3">
       <c r="A102" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:3">
       <c r="A103" s="3"/>
       <c r="B103" t="s">
         <v>10</v>
@@ -1922,7 +1973,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:3">
       <c r="A104" s="3"/>
       <c r="B104" t="s">
         <v>5</v>
@@ -1931,7 +1982,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:3">
       <c r="A105" s="3"/>
       <c r="B105" t="s">
         <v>2</v>
@@ -1940,7 +1991,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:3">
       <c r="A106" s="3"/>
       <c r="B106" t="s">
         <v>24</v>
@@ -1949,7 +2000,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3">
       <c r="A107" s="3"/>
       <c r="B107" t="s">
         <v>22</v>
@@ -1958,7 +2009,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:3">
       <c r="A108" s="3"/>
       <c r="B108" t="s">
         <v>23</v>
@@ -1967,7 +2018,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:3">
       <c r="A109" s="3"/>
       <c r="B109" t="s">
         <v>16</v>
@@ -1976,7 +2027,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:3">
       <c r="A110" s="3"/>
       <c r="B110" t="s">
         <v>38</v>
@@ -1985,12 +2036,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:3">
       <c r="A111" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:3">
       <c r="A112" s="3"/>
       <c r="B112" t="s">
         <v>12</v>
@@ -1999,7 +2050,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:3">
       <c r="A113" s="3"/>
       <c r="B113" t="s">
         <v>59</v>
@@ -2008,7 +2059,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:3">
       <c r="A114" s="3"/>
       <c r="B114" t="s">
         <v>13</v>
@@ -2017,7 +2068,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:3">
       <c r="A115" s="3"/>
       <c r="B115" t="s">
         <v>61</v>
@@ -2026,7 +2077,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:3">
       <c r="A116" s="3"/>
       <c r="B116" t="s">
         <v>62</v>
@@ -2035,12 +2086,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:3">
       <c r="A117" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:3">
       <c r="A118" s="3"/>
       <c r="B118" t="s">
         <v>10</v>
@@ -2049,7 +2100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:3">
       <c r="A119" s="3"/>
       <c r="B119" t="s">
         <v>2</v>
@@ -2058,7 +2109,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:3">
       <c r="A120" s="3"/>
       <c r="B120" t="s">
         <v>1</v>
@@ -2067,7 +2118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:3">
       <c r="A121" s="3"/>
       <c r="B121" t="s">
         <v>22</v>
@@ -2076,7 +2127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:3">
       <c r="A122" s="3"/>
       <c r="B122" t="s">
         <v>23</v>
@@ -2085,7 +2136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:3">
       <c r="A123" s="3"/>
       <c r="B123" t="s">
         <v>16</v>
@@ -2094,7 +2145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:3">
       <c r="A124" s="3"/>
       <c r="B124" t="s">
         <v>11</v>
@@ -2103,7 +2154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:3">
       <c r="A125" s="3"/>
       <c r="B125" t="s">
         <v>44</v>
@@ -2112,12 +2163,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:3">
       <c r="A126" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:3">
       <c r="A127" s="3"/>
       <c r="B127" t="s">
         <v>4</v>
@@ -2126,7 +2177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:3">
       <c r="A128" s="3"/>
       <c r="B128" t="s">
         <v>2</v>
@@ -2135,7 +2186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:3">
       <c r="A129" s="3"/>
       <c r="B129" t="s">
         <v>24</v>
@@ -2144,7 +2195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:3">
       <c r="A130" s="3"/>
       <c r="B130" t="s">
         <v>22</v>
@@ -2153,7 +2204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:3">
       <c r="A131" s="3"/>
       <c r="B131" t="s">
         <v>23</v>
@@ -2162,7 +2213,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:3">
       <c r="A132" s="3"/>
       <c r="B132" t="s">
         <v>16</v>
@@ -2171,7 +2222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:3">
       <c r="A133" s="3"/>
       <c r="B133" t="s">
         <v>3</v>
@@ -2180,7 +2231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:3">
       <c r="A134" s="3"/>
       <c r="B134" t="s">
         <v>44</v>
@@ -2189,12 +2240,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:3">
       <c r="A135" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:3">
       <c r="B136" t="s">
         <v>105</v>
       </c>
@@ -2202,7 +2253,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:3">
       <c r="B137" t="s">
         <v>107</v>
       </c>
@@ -2210,7 +2261,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:3">
       <c r="B138" t="s">
         <v>108</v>
       </c>
@@ -2218,7 +2269,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:3">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -2226,7 +2277,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:3">
       <c r="B140" t="s">
         <v>3</v>
       </c>
@@ -2234,12 +2285,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:3">
       <c r="A141" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:3">
       <c r="A142" s="3"/>
       <c r="B142" t="s">
         <v>6</v>
@@ -2248,12 +2299,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:3">
       <c r="A143" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:3">
       <c r="A144" s="3"/>
       <c r="B144" t="s">
         <v>96</v>
@@ -2262,7 +2313,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:3">
       <c r="A145" s="3"/>
       <c r="B145" s="5" t="s">
         <v>98</v>
@@ -2271,12 +2322,189 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A146" s="1" t="s">
+    <row r="146" spans="1:3">
+      <c r="A146" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="3"/>
+      <c r="B147" t="s">
+        <v>132</v>
+      </c>
+      <c r="C147" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="3"/>
+      <c r="B148" t="s">
+        <v>43</v>
+      </c>
+      <c r="C148" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="3"/>
+      <c r="B150" t="s">
+        <v>135</v>
+      </c>
+      <c r="C150" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="3"/>
+      <c r="B151" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="3"/>
+      <c r="B152" t="s">
+        <v>22</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="3"/>
+      <c r="B153" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="3"/>
+      <c r="B154" t="s">
+        <v>36</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="3"/>
+      <c r="B155" t="s">
+        <v>62</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="3"/>
+      <c r="B156" t="s">
+        <v>88</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="3"/>
+      <c r="B157" t="s">
+        <v>43</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="3"/>
+      <c r="B159" t="s">
+        <v>135</v>
+      </c>
+      <c r="C159" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="3"/>
+      <c r="B160" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="3"/>
+      <c r="B161" t="s">
+        <v>22</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="3"/>
+      <c r="B162" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="3"/>
+      <c r="B163" t="s">
+        <v>36</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="3"/>
+      <c r="B164" t="s">
+        <v>62</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="3"/>
+      <c r="B165" t="s">
+        <v>88</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="3"/>
+      <c r="B166" t="s">
+        <v>43</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/codebase/ext/generic/cfg/WFTemplate.xlsx
+++ b/codebase/ext/generic/cfg/WFTemplate.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFEBE9E-2F41-EE4E-B2C7-D583BDFCB6C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF54E0E-E12E-2B48-8016-E333EC5D74D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:D167"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+      <selection activeCell="C148" sqref="C147:C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2333,7 +2333,7 @@
         <v>132</v>
       </c>
       <c r="C147" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="148" spans="1:3">

--- a/codebase/ext/generic/cfg/WFTemplate.xlsx
+++ b/codebase/ext/generic/cfg/WFTemplate.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF54E0E-E12E-2B48-8016-E333EC5D74D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67C7A54-E97F-2145-8139-ED5C22FCD31D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="146">
   <si>
     <t>请不要删除此行</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -627,6 +627,38 @@
   </si>
   <si>
     <t>APPO_DRAWINGCHANGEWF</t>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_ECNWF/Common.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_BOMCHANGEWF/Edit.jsp</t>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_BOMCHANGEWF/Edit.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_BOMCHANGEWF/Common.jsp</t>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_BOMCHANGEWF/Common.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_DRAWINGCHANGEWF/Edit.jsp</t>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_DRAWINGCHANGEWF/Edit.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_DRAWINGCHANGEWF/Common.jsp</t>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_DRAWINGCHANGEWF/Common.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1077,7 +1109,7 @@
   <dimension ref="A1:D167"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C148" sqref="C147:C148"/>
+      <selection activeCell="C166" sqref="C166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2333,7 +2365,7 @@
         <v>132</v>
       </c>
       <c r="C147" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2342,7 +2374,7 @@
         <v>43</v>
       </c>
       <c r="C148" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2356,7 +2388,7 @@
         <v>135</v>
       </c>
       <c r="C150" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2365,7 +2397,7 @@
         <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2374,7 +2406,7 @@
         <v>22</v>
       </c>
       <c r="C152" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2383,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2392,7 +2424,7 @@
         <v>36</v>
       </c>
       <c r="C154" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2401,7 +2433,7 @@
         <v>62</v>
       </c>
       <c r="C155" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2410,7 +2442,7 @@
         <v>88</v>
       </c>
       <c r="C156" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2419,7 +2451,7 @@
         <v>43</v>
       </c>
       <c r="C157" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2433,7 +2465,7 @@
         <v>135</v>
       </c>
       <c r="C159" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2442,7 +2474,7 @@
         <v>2</v>
       </c>
       <c r="C160" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2451,7 +2483,7 @@
         <v>22</v>
       </c>
       <c r="C161" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2460,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2469,7 +2501,7 @@
         <v>36</v>
       </c>
       <c r="C163" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2478,7 +2510,7 @@
         <v>62</v>
       </c>
       <c r="C164" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2487,7 +2519,7 @@
         <v>88</v>
       </c>
       <c r="C165" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2496,7 +2528,7 @@
         <v>43</v>
       </c>
       <c r="C166" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
     </row>
     <row r="167" spans="1:3">

--- a/codebase/ext/generic/cfg/WFTemplate.xlsx
+++ b/codebase/ext/generic/cfg/WFTemplate.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67C7A54-E97F-2145-8139-ED5C22FCD31D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC349512-4B1E-1341-91E5-E8093AC64652}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="149">
   <si>
     <t>请不要删除此行</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -658,6 +658,18 @@
   </si>
   <si>
     <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_DRAWINGCHANGEWF/Common.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_ECNWF/Edit.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_ECNWF/Sign.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_ECNWF/Approval.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1106,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C166" sqref="C166"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2365,63 +2377,63 @@
         <v>132</v>
       </c>
       <c r="C147" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="3"/>
       <c r="B148" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C148" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="3" t="s">
-        <v>134</v>
+      <c r="A149" s="3"/>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="3"/>
       <c r="B150" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="C150" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="3"/>
-      <c r="B151" t="s">
-        <v>2</v>
-      </c>
-      <c r="C151" t="s">
-        <v>141</v>
+      <c r="A151" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="3"/>
       <c r="B152" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="C152" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="3"/>
       <c r="B153" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="3"/>
       <c r="B154" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C154" t="s">
         <v>140</v>
@@ -2430,16 +2442,16 @@
     <row r="155" spans="1:3">
       <c r="A155" s="3"/>
       <c r="B155" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="3"/>
       <c r="B156" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="C156" t="s">
         <v>140</v>
@@ -2448,57 +2460,57 @@
     <row r="157" spans="1:3">
       <c r="A157" s="3"/>
       <c r="B157" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C157" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="3" t="s">
-        <v>136</v>
+      <c r="A158" s="3"/>
+      <c r="B158" t="s">
+        <v>88</v>
+      </c>
+      <c r="C158" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="3"/>
       <c r="B159" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="C159" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="3"/>
-      <c r="B160" t="s">
-        <v>2</v>
-      </c>
-      <c r="C160" t="s">
-        <v>145</v>
+      <c r="A160" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="3"/>
       <c r="B161" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="C161" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="3"/>
       <c r="B162" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="3"/>
       <c r="B163" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C163" t="s">
         <v>144</v>
@@ -2507,16 +2519,16 @@
     <row r="164" spans="1:3">
       <c r="A164" s="3"/>
       <c r="B164" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="3"/>
       <c r="B165" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="C165" t="s">
         <v>144</v>
@@ -2525,18 +2537,36 @@
     <row r="166" spans="1:3">
       <c r="A166" s="3"/>
       <c r="B166" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C166" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="3"/>
+      <c r="B167" t="s">
+        <v>88</v>
+      </c>
+      <c r="C167" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="3"/>
+      <c r="B168" t="s">
+        <v>43</v>
+      </c>
+      <c r="C168" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/codebase/ext/generic/cfg/WFTemplate.xlsx
+++ b/codebase/ext/generic/cfg/WFTemplate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC349512-4B1E-1341-91E5-E8093AC64652}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C615B9-30E0-478C-AB2F-3B3867A44E70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WFTemplate" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="151">
   <si>
     <t>请不要删除此行</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -672,12 +672,20 @@
     <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_ECNWF/Approval.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_ECNWF/Edit.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1118,26 +1126,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C150" sqref="C150"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" t="s">
         <v>31</v>
@@ -1146,7 +1154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>33</v>
@@ -1155,7 +1163,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>35</v>
@@ -1164,7 +1172,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>36</v>
@@ -1173,7 +1181,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>37</v>
@@ -1182,7 +1190,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>38</v>
@@ -1191,7 +1199,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>44</v>
@@ -1200,7 +1208,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>39</v>
@@ -1209,12 +1217,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>4</v>
@@ -1223,7 +1231,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>2</v>
@@ -1232,7 +1240,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>1</v>
@@ -1241,7 +1249,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" t="s">
         <v>36</v>
@@ -1250,7 +1258,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>37</v>
@@ -1259,7 +1267,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>38</v>
@@ -1269,7 +1277,7 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>44</v>
@@ -1278,7 +1286,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>5</v>
@@ -1287,12 +1295,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>12</v>
@@ -1304,7 +1312,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>13</v>
@@ -1316,7 +1324,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>51</v>
@@ -1328,7 +1336,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>11</v>
@@ -1337,7 +1345,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>5</v>
@@ -1346,7 +1354,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
         <v>63</v>
@@ -1355,12 +1363,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>4</v>
@@ -1369,7 +1377,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" t="s">
         <v>5</v>
@@ -1378,7 +1386,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
         <v>45</v>
@@ -1387,7 +1395,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" t="s">
         <v>47</v>
@@ -1396,7 +1404,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>36</v>
@@ -1405,7 +1413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
         <v>49</v>
@@ -1414,7 +1422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
         <v>3</v>
@@ -1423,7 +1431,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
         <v>88</v>
@@ -1432,7 +1440,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" t="s">
         <v>44</v>
@@ -1441,12 +1449,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
         <v>120</v>
@@ -1455,7 +1463,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
         <v>122</v>
@@ -1464,7 +1472,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" t="s">
         <v>123</v>
@@ -1473,7 +1481,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
         <v>126</v>
@@ -1482,7 +1490,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" t="s">
         <v>127</v>
@@ -1491,7 +1499,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" t="s">
         <v>128</v>
@@ -1500,7 +1508,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
         <v>129</v>
@@ -1509,7 +1517,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" t="s">
         <v>130</v>
@@ -1518,7 +1526,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" t="s">
         <v>131</v>
@@ -1527,12 +1535,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" t="s">
         <v>4</v>
@@ -1541,7 +1549,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" t="s">
         <v>5</v>
@@ -1550,7 +1558,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" t="s">
         <v>45</v>
@@ -1559,7 +1567,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" t="s">
         <v>1</v>
@@ -1568,7 +1576,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" t="s">
         <v>37</v>
@@ -1577,7 +1585,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" t="s">
         <v>3</v>
@@ -1586,7 +1594,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" t="s">
         <v>44</v>
@@ -1595,12 +1603,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" t="s">
         <v>4</v>
@@ -1609,7 +1617,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" t="s">
         <v>5</v>
@@ -1618,7 +1626,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" t="s">
         <v>2</v>
@@ -1627,7 +1635,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" t="s">
         <v>1</v>
@@ -1636,7 +1644,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" t="s">
         <v>22</v>
@@ -1645,7 +1653,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" t="s">
         <v>3</v>
@@ -1654,7 +1662,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" t="s">
         <v>43</v>
@@ -1663,12 +1671,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" t="s">
         <v>4</v>
@@ -1677,7 +1685,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" t="s">
         <v>5</v>
@@ -1686,7 +1694,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" t="s">
         <v>45</v>
@@ -1695,7 +1703,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" t="s">
         <v>118</v>
@@ -1704,7 +1712,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" t="s">
         <v>47</v>
@@ -1713,7 +1721,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" t="s">
         <v>117</v>
@@ -1722,7 +1730,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" t="s">
         <v>3</v>
@@ -1731,7 +1739,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" t="s">
         <v>43</v>
@@ -1740,12 +1748,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" t="s">
         <v>4</v>
@@ -1754,7 +1762,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" t="s">
         <v>5</v>
@@ -1763,7 +1771,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" t="s">
         <v>2</v>
@@ -1772,7 +1780,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" t="s">
         <v>22</v>
@@ -1781,7 +1789,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" t="s">
         <v>115</v>
@@ -1790,7 +1798,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" t="s">
         <v>116</v>
@@ -1799,7 +1807,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" t="s">
         <v>3</v>
@@ -1808,7 +1816,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" t="s">
         <v>43</v>
@@ -1817,12 +1825,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" t="s">
         <v>4</v>
@@ -1831,7 +1839,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" t="s">
         <v>5</v>
@@ -1840,7 +1848,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" t="s">
         <v>2</v>
@@ -1849,7 +1857,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" t="s">
         <v>22</v>
@@ -1858,7 +1866,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" t="s">
         <v>113</v>
@@ -1867,7 +1875,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" t="s">
         <v>114</v>
@@ -1876,7 +1884,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" t="s">
         <v>3</v>
@@ -1885,7 +1893,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" t="s">
         <v>43</v>
@@ -1894,12 +1902,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" t="s">
         <v>4</v>
@@ -1908,7 +1916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" t="s">
         <v>42</v>
@@ -1917,7 +1925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" t="s">
         <v>1</v>
@@ -1926,7 +1934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" t="s">
         <v>65</v>
@@ -1935,7 +1943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" t="s">
         <v>53</v>
@@ -1944,12 +1952,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" t="s">
         <v>10</v>
@@ -1958,7 +1966,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" t="s">
         <v>100</v>
@@ -1967,7 +1975,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" t="s">
         <v>24</v>
@@ -1976,7 +1984,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" t="s">
         <v>36</v>
@@ -1985,7 +1993,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" t="s">
         <v>3</v>
@@ -1994,7 +2002,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" t="s">
         <v>112</v>
@@ -2003,12 +2011,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" t="s">
         <v>10</v>
@@ -2017,7 +2025,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" t="s">
         <v>5</v>
@@ -2026,7 +2034,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" t="s">
         <v>2</v>
@@ -2035,7 +2043,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" t="s">
         <v>24</v>
@@ -2044,7 +2052,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" t="s">
         <v>22</v>
@@ -2053,7 +2061,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" t="s">
         <v>23</v>
@@ -2062,7 +2070,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" t="s">
         <v>16</v>
@@ -2071,7 +2079,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" t="s">
         <v>38</v>
@@ -2080,12 +2088,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" t="s">
         <v>12</v>
@@ -2094,7 +2102,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" t="s">
         <v>59</v>
@@ -2103,7 +2111,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" t="s">
         <v>13</v>
@@ -2112,7 +2120,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" t="s">
         <v>61</v>
@@ -2121,7 +2129,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" t="s">
         <v>62</v>
@@ -2130,12 +2138,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" t="s">
         <v>10</v>
@@ -2144,7 +2152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" t="s">
         <v>2</v>
@@ -2153,7 +2161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" t="s">
         <v>1</v>
@@ -2162,7 +2170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" t="s">
         <v>22</v>
@@ -2171,7 +2179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" t="s">
         <v>23</v>
@@ -2180,7 +2188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" t="s">
         <v>16</v>
@@ -2189,7 +2197,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" t="s">
         <v>11</v>
@@ -2198,7 +2206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" t="s">
         <v>44</v>
@@ -2207,12 +2215,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" t="s">
         <v>4</v>
@@ -2221,7 +2229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" t="s">
         <v>2</v>
@@ -2230,16 +2238,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C129" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" t="s">
         <v>22</v>
@@ -2248,7 +2256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" t="s">
         <v>23</v>
@@ -2257,7 +2265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" t="s">
         <v>16</v>
@@ -2266,7 +2274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" t="s">
         <v>3</v>
@@ -2275,7 +2283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" t="s">
         <v>44</v>
@@ -2284,12 +2292,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>105</v>
       </c>
@@ -2297,7 +2305,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>107</v>
       </c>
@@ -2305,7 +2313,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>108</v>
       </c>
@@ -2313,7 +2321,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -2321,7 +2329,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>3</v>
       </c>
@@ -2329,12 +2337,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" t="s">
         <v>6</v>
@@ -2343,12 +2351,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" t="s">
         <v>96</v>
@@ -2357,7 +2365,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="5" t="s">
         <v>98</v>
@@ -2366,12 +2374,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" t="s">
         <v>132</v>
@@ -2380,193 +2388,202 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C149" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="3"/>
+      <c r="B151" t="s">
         <v>43</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C151" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="3" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="3"/>
-      <c r="B152" t="s">
-        <v>135</v>
-      </c>
-      <c r="C152" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" t="s">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="C153" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C154" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C155" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C157" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C158" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="C159" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="3" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="3"/>
+      <c r="B160" t="s">
+        <v>43</v>
+      </c>
+      <c r="C160" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="3"/>
-      <c r="B161" t="s">
-        <v>135</v>
-      </c>
-      <c r="C161" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" t="s">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="C162" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C163" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C164" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C166" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C167" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="C168" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="1" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="3"/>
+      <c r="B169" t="s">
+        <v>43</v>
+      </c>
+      <c r="C169" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/codebase/ext/generic/cfg/WFTemplate.xlsx
+++ b/codebase/ext/generic/cfg/WFTemplate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C615B9-30E0-478C-AB2F-3B3867A44E70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D18011D-33DD-4B7D-A588-94430D1710A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2364" yWindow="1416" windowWidth="19884" windowHeight="10788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WFTemplate" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="152">
   <si>
     <t>请不要删除此行</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -674,6 +674,10 @@
   </si>
   <si>
     <t>审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_ECNWF/Edit.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1126,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1960,7 +1964,7 @@
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C96" t="s">
         <v>40</v>
@@ -2382,102 +2386,102 @@
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" t="s">
-        <v>132</v>
+        <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C148" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="C149" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C150" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="3"/>
+      <c r="B152" t="s">
         <v>43</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C152" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-      <c r="B153" t="s">
-        <v>135</v>
-      </c>
-      <c r="C153" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" t="s">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="C154" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C155" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C156" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C158" t="s">
         <v>140</v>
@@ -2486,7 +2490,7 @@
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C159" t="s">
         <v>140</v>
@@ -2495,66 +2499,66 @@
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="C160" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="3"/>
+      <c r="B161" t="s">
+        <v>43</v>
+      </c>
+      <c r="C161" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
-      <c r="B162" t="s">
-        <v>135</v>
-      </c>
-      <c r="C162" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" t="s">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="C163" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C164" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C165" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C167" t="s">
         <v>144</v>
@@ -2563,7 +2567,7 @@
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C168" t="s">
         <v>144</v>
@@ -2572,18 +2576,27 @@
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="C169" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="3"/>
+      <c r="B170" t="s">
+        <v>43</v>
+      </c>
+      <c r="C170" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/codebase/ext/generic/cfg/WFTemplate.xlsx
+++ b/codebase/ext/generic/cfg/WFTemplate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D18011D-33DD-4B7D-A588-94430D1710A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF16DBCE-9FAE-4866-9ED8-F9BC5ABA9BC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2364" yWindow="1416" windowWidth="19884" windowHeight="10788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="588" yWindow="360" windowWidth="21528" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WFTemplate" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="151">
   <si>
     <t>请不要删除此行</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -661,27 +661,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_ECNWF/Sign.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_ECNWF/Approval.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_ECNWF/Edit.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_ECNWF/Sign.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_ECNWF/Approval.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_ECNWF/Edit.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_ECNWF/Edit.jsp</t>
+    <t>/netmarkets/jsp/ext/appo/change/taskpage/APPO_ECNWF/EditAndChangeTask.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1133,7 +1129,7 @@
   <dimension ref="A1:D171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A141" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2389,7 +2385,7 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2398,16 +2394,16 @@
         <v>132</v>
       </c>
       <c r="C148" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" t="s">
+        <v>148</v>
+      </c>
+      <c r="C149" t="s">
         <v>149</v>
-      </c>
-      <c r="C149" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2416,7 +2412,7 @@
         <v>36</v>
       </c>
       <c r="C150" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2425,7 +2421,7 @@
         <v>3</v>
       </c>
       <c r="C151" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
